--- a/TCP/registro.xlsx
+++ b/TCP/registro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipe/Desktop/GitHub/Lab3_Redes_TCP_UDP/TCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5081A-F5FF-A749-8190-AE1F5260E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4534A-BD7C-0941-BC8C-A4DD225DAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="820" windowWidth="15880" windowHeight="17260" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Transferencia Exitosa</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Numero Puerto utilizado para la conexión de cada cliente</t>
-  </si>
-  <si>
     <t>Valor total de bytes recibidos</t>
   </si>
   <si>
@@ -63,14 +60,38 @@
   </si>
   <si>
     <t>PRUEBA 1 (100MB - 1 CLIENTE)</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Numero Puerto utilizado para la conexión de cada cliente (Aplicación Cliente)</t>
+  </si>
+  <si>
+    <t>0:00:00.392117</t>
+  </si>
+  <si>
+    <t>Tasa de Transferencia (MB/s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,21 +115,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,26 +464,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FB4C91-B7A4-4440-B30A-03D089B0CABF}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -451,86 +492,71 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8">
+        <f>(C3/1000000)/(0.392117)</f>
+        <v>267.41406263946732</v>
+      </c>
+      <c r="F3" s="2">
+        <v>62030</v>
+      </c>
+      <c r="G3" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>5555</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TCP/registro.xlsx
+++ b/TCP/registro.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipe/Desktop/GitHub/Lab3_Redes_TCP_UDP/TCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4534A-BD7C-0941-BC8C-A4DD225DAD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191F62A-44FA-A94C-9BF7-3DD71ADD8DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16880" windowHeight="17320" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
   <si>
     <t>Transferencia Exitosa</t>
   </si>
@@ -44,15 +44,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Valor total de bytes recibidos</t>
-  </si>
-  <si>
-    <t>Tiempo de la transferencia</t>
-  </si>
-  <si>
-    <t>Valor total de bytes transmitidos por el servidor</t>
-  </si>
-  <si>
     <t>Tiempo de transferencia a cada uno de los clientes medido desde el servidor</t>
   </si>
   <si>
@@ -68,20 +59,229 @@
     <t>Numero Puerto utilizado para la conexión de cada cliente (Aplicación Cliente)</t>
   </si>
   <si>
-    <t>0:00:00.392117</t>
-  </si>
-  <si>
     <t>Tasa de Transferencia (MB/s)</t>
+  </si>
+  <si>
+    <t>Valor total de bytes recibidos por cliente</t>
+  </si>
+  <si>
+    <t>Tiempo de la transferencia por cliente</t>
+  </si>
+  <si>
+    <t>Valor total de bytes transmitidos por el servidor a cada cliente</t>
+  </si>
+  <si>
+    <t>0:00:00.400030</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:00.994058</t>
+  </si>
+  <si>
+    <t>0:00:00.413032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:01.21982</t>
+  </si>
+  <si>
+    <t>PRUEBA 2 (250MB - 1 CLIENTE)</t>
+  </si>
+  <si>
+    <t>0:00:00.368638</t>
+  </si>
+  <si>
+    <t>0:00:00.351157</t>
+  </si>
+  <si>
+    <t>0:00:00.448274</t>
+  </si>
+  <si>
+    <t>0:00:00.354905</t>
+  </si>
+  <si>
+    <t>0:00:02.341572</t>
+  </si>
+  <si>
+    <t>0:00:00.380793</t>
+  </si>
+  <si>
+    <t>0:00:00.362378</t>
+  </si>
+  <si>
+    <t>0:00:00.451821</t>
+  </si>
+  <si>
+    <t>0:00:00.366907</t>
+  </si>
+  <si>
+    <t>0:00:02.351426</t>
+  </si>
+  <si>
+    <t>PRUEBA 3 (100MB - 5 CLIENTE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:06.075242</t>
+  </si>
+  <si>
+    <t>0:00:00.868336</t>
+  </si>
+  <si>
+    <t>0:00:00.859414</t>
+  </si>
+  <si>
+    <t>0:00:04.196482</t>
+  </si>
+  <si>
+    <t>0:00:06.455776</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:06.087234</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:00.884359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:00.873170</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:04.209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00:06.469274</t>
+  </si>
+  <si>
+    <t>PRUEBA 4 (250MB - 5 CLIENTE)</t>
+  </si>
+  <si>
+    <t>0:00:00.355689</t>
+  </si>
+  <si>
+    <t>0:00:00.350687</t>
+  </si>
+  <si>
+    <t>0:00:00.345856</t>
+  </si>
+  <si>
+    <t>0:00:00.449195</t>
+  </si>
+  <si>
+    <t>0:00:00.339652</t>
+  </si>
+  <si>
+    <t>0:00:00.332392</t>
+  </si>
+  <si>
+    <t>0:00:00.344657</t>
+  </si>
+  <si>
+    <t>0:00:09.713740</t>
+  </si>
+  <si>
+    <t>0:00:00.347758</t>
+  </si>
+  <si>
+    <t>0:00:00.348322</t>
+  </si>
+  <si>
+    <t>0:00:00.367271</t>
+  </si>
+  <si>
+    <t>0:00:00.361532</t>
+  </si>
+  <si>
+    <t>0:00:00.357748</t>
+  </si>
+  <si>
+    <t>0:00:00.461013</t>
+  </si>
+  <si>
+    <t>0:00:00.350916</t>
+  </si>
+  <si>
+    <t>0:00:00.343965</t>
+  </si>
+  <si>
+    <t>0:00:00.352889</t>
+  </si>
+  <si>
+    <t>0:00:09.725607</t>
+  </si>
+  <si>
+    <t>0:00:00.358720</t>
+  </si>
+  <si>
+    <t>0:00:00.354186</t>
+  </si>
+  <si>
+    <t>PRUEBA 5 (100MB - 10 CLIENTE)</t>
+  </si>
+  <si>
+    <t>PRUEBA 6 (250MB - 10 CLIENTE)</t>
+  </si>
+  <si>
+    <t>0:00:05.739988</t>
+  </si>
+  <si>
+    <t>0:00:02.105989</t>
+  </si>
+  <si>
+    <t>0:00:00.906810</t>
+  </si>
+  <si>
+    <t>0:00:00.893172</t>
+  </si>
+  <si>
+    <t>0:00:01.795052</t>
+  </si>
+  <si>
+    <t>0:00:09.255642</t>
+  </si>
+  <si>
+    <t>0:00:00.868001</t>
+  </si>
+  <si>
+    <t>0:00:05.217658</t>
+  </si>
+  <si>
+    <t>0:00:00.880083</t>
+  </si>
+  <si>
+    <t>0:00:04.913792</t>
+  </si>
+  <si>
+    <t>0:00:05.768243</t>
+  </si>
+  <si>
+    <t>0:00:02.119076</t>
+  </si>
+  <si>
+    <t>0:00:00.921824</t>
+  </si>
+  <si>
+    <t>0:00:00.807647</t>
+  </si>
+  <si>
+    <t>0:00:01.807647</t>
+  </si>
+  <si>
+    <t>0:00:09.281625</t>
+  </si>
+  <si>
+    <t>0:00:00.882546</t>
+  </si>
+  <si>
+    <t>0:00:05.230391</t>
+  </si>
+  <si>
+    <t>0:00:00.892299</t>
+  </si>
+  <si>
+    <t>0:00:04.941924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,7 +307,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -130,26 +330,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,100 +721,1214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FB4C91-B7A4-4440-B30A-03D089B0CABF}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="8" max="12" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" customWidth="1"/>
+    <col min="21" max="21" width="31.1640625" customWidth="1"/>
+    <col min="33" max="33" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:43" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="U1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AG1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+    </row>
+    <row r="2" spans="1:43" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3</v>
+      </c>
+      <c r="R2" s="4">
+        <v>4</v>
+      </c>
+      <c r="S2" s="4">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <v>2</v>
+      </c>
+      <c r="X2" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="4">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="AC2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="I4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="J4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="K4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="L4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="P4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="R4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="W4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="X4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>262144000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(B4/1000000)/(0.40003)</f>
+        <v>262.12434067444946</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(E4/1000000)/(0.994058)</f>
+        <v>263.71097058722933</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <f>(H4/1000000)/(0.368638)</f>
+        <v>284.44598766269348</v>
+      </c>
+      <c r="I6" s="2">
+        <f>(I4/1000000)/(0.351157)</f>
+        <v>298.60603661610048</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(J4/1000000)/(0.448274)</f>
+        <v>233.91407933540648</v>
+      </c>
+      <c r="K6" s="2">
+        <f>(K4/1000000)/(0.354905)</f>
+        <v>295.45258590326989</v>
+      </c>
+      <c r="L6" s="2">
+        <f>(L4/1000000)/(2.341572)</f>
+        <v>44.780856621107525</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2">
+        <f>(O4/1000000)/(6.075242)</f>
+        <v>43.149556840698693</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(P4/1000000)/(0.868336)</f>
+        <v>301.89235503307475</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>(Q4/1000000)/(0.859414)</f>
+        <v>305.02644825427558</v>
+      </c>
+      <c r="R6" s="2">
+        <f>(R4/1000000)/(4.196482)</f>
+        <v>62.467562115124053</v>
+      </c>
+      <c r="S6" s="2">
+        <f>(S4/1000000)/(6.455776)</f>
+        <v>40.606117684380621</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="2">
+        <f>(V4/1000000)/(0.355589)</f>
+        <v>294.88426244906339</v>
+      </c>
+      <c r="W6" s="2">
+        <f>(W4/1000000)/(0.350687)</f>
+        <v>299.00623633040288</v>
+      </c>
+      <c r="X6" s="2">
+        <f>(X4/1000000)/(0.345856)</f>
+        <v>303.18282753515916</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>(Y4/1000000)/(0.449195)</f>
+        <v>233.43447723149188</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>(Z4/1000000)/(0.339652)</f>
+        <v>308.72069058919129</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>(AA4/1000000)/(0.332392)</f>
+        <v>315.46366940239233</v>
+      </c>
+      <c r="AB6" s="2">
+        <f>(AB4/1000000)/(0.344657)</f>
+        <v>304.23754631416165</v>
+      </c>
+      <c r="AC6" s="2">
+        <f>(AC4/1000000)/(0.71374)</f>
+        <v>146.91288144142123</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>(AD4/1000000)/(0.347758)</f>
+        <v>301.52462344503937</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>(AE4/1000000)/(0.348322)</f>
+        <v>301.03639735646902</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>(AH4/1000000)/(5.739988)</f>
+        <v>45.669781888045755</v>
+      </c>
+      <c r="AI6" s="2">
+        <f>(AI4/1000000)/(2.105989)</f>
+        <v>124.47548396501595</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f>(AJ4/1000000)/(0.90681)</f>
+        <v>289.0837110309767</v>
+      </c>
+      <c r="AK6" s="2">
+        <f>(AK4/1000000)/(0.893172)</f>
+        <v>293.49778094252844</v>
+      </c>
+      <c r="AL6" s="2">
+        <f>(AL4/1000000)/(1.795052)</f>
+        <v>146.03699502855628</v>
+      </c>
+      <c r="AM6" s="2">
+        <f>(AM4/1000000)/(0.9255642)</f>
+        <v>283.22616626701858</v>
+      </c>
+      <c r="AN6" s="2">
+        <f>(AN4/1000000)/(0.868001)</f>
+        <v>302.00886865337714</v>
+      </c>
+      <c r="AO6" s="2">
+        <f>(AO4/1000000)/(5.217658)</f>
+        <v>50.241698478512774</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>(AP4/1000000)/(0.880083)</f>
+        <v>297.86281521174709</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>(AQ4/1000000)/(4.913792)</f>
+        <v>53.348615488811902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>52376</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>52382</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>52408</v>
+      </c>
+      <c r="I7" s="2">
+        <v>52409</v>
+      </c>
+      <c r="J7" s="2">
+        <f>I7+1</f>
+        <v>52410</v>
+      </c>
+      <c r="K7" s="2">
+        <f>J7+1</f>
+        <v>52411</v>
+      </c>
+      <c r="L7" s="2">
+        <f>K7+1</f>
+        <v>52412</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2">
+        <v>52420</v>
+      </c>
+      <c r="P7" s="2">
+        <f>O7+1</f>
+        <v>52421</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>P7+1</f>
+        <v>52422</v>
+      </c>
+      <c r="R7" s="2">
+        <f>Q7+1</f>
+        <v>52423</v>
+      </c>
+      <c r="S7" s="2">
+        <f>R7+1</f>
+        <v>52424</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="2">
+        <v>52437</v>
+      </c>
+      <c r="W7" s="2">
+        <f>V7+1</f>
+        <v>52438</v>
+      </c>
+      <c r="X7" s="2">
+        <f>W7+1</f>
+        <v>52439</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>X7+1</f>
+        <v>52440</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>Y7+1</f>
+        <v>52441</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AE7" si="0">Z7+1</f>
+        <v>52442</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="0"/>
+        <v>52443</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="0"/>
+        <v>52444</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="0"/>
+        <v>52445</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="0"/>
+        <v>52446</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>52455</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>AH7+1</f>
+        <v>52456</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f>AI7+1</f>
+        <v>52457</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>AJ7+1</f>
+        <v>52458</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>AK7+1</f>
+        <v>52459</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" ref="AM7:AQ7" si="1">AL7+1</f>
+        <v>52460</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="1"/>
+        <v>52461</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" si="1"/>
+        <v>52462</v>
+      </c>
+      <c r="AP7" s="2">
+        <f t="shared" si="1"/>
+        <v>52463</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" si="1"/>
+        <v>52464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="I8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="J8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="K8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="L8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="R8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="S8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="W8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="X8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>104857600</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>262144000</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>262144000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ9" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>104857600</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8">
-        <f>(C3/1000000)/(0.392117)</f>
-        <v>267.41406263946732</v>
-      </c>
-      <c r="F3" s="2">
-        <v>62030</v>
-      </c>
-      <c r="G3" s="2">
-        <v>104857600</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D4" s="7"/>
+      <c r="B10" s="2">
+        <v>52376</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>52382</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5412</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5412</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5412</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5412</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5412</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>52424</v>
+      </c>
+      <c r="P10" s="2">
+        <f>O10</f>
+        <v>52424</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ref="Q10:S10" si="2">P10</f>
+        <v>52424</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="2"/>
+        <v>52424</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="2"/>
+        <v>52424</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="2">
+        <v>52446</v>
+      </c>
+      <c r="W10" s="2">
+        <f>V10</f>
+        <v>52446</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" ref="X10:AE10" si="3">W10</f>
+        <v>52446</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="3"/>
+        <v>52446</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>52464</v>
+      </c>
+      <c r="AI10" s="2">
+        <f>AH10</f>
+        <v>52464</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" ref="AJ10:AQ10" si="4">AI10</f>
+        <v>52464</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AP10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
+      <c r="AQ10" s="2">
+        <f t="shared" si="4"/>
+        <v>52464</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="6">
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="U1:AE1"/>
+    <mergeCell ref="AG1:AQ1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TCP/registro.xlsx
+++ b/TCP/registro.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pipe/Desktop/GitHub/Lab3_Redes_TCP_UDP/TCP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1191F62A-44FA-A94C-9BF7-3DD71ADD8DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D69E69-3AF2-E846-A582-129AE0651D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16880" windowHeight="17320" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17320" xr2:uid="{12A176F4-82E3-5F4E-9329-0F4DB510B7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AG$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$AG$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$AG$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$AH$12:$AQ$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$AH$13:$AQ$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$AH$14:$AQ$14</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$AH$13:$AQ$13</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$AH$14:$AQ$14</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$AG$12</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$AG$13</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$AG$14</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$AH$12:$AQ$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Transferencia Exitosa</t>
   </si>
@@ -276,13 +290,31 @@
   </si>
   <si>
     <t>0:00:04.941924</t>
+  </si>
+  <si>
+    <t>Prueba 1</t>
+  </si>
+  <si>
+    <t>Prueba 2</t>
+  </si>
+  <si>
+    <t>Prueba 3</t>
+  </si>
+  <si>
+    <t>Prueba 4</t>
+  </si>
+  <si>
+    <t>Prueba 5</t>
+  </si>
+  <si>
+    <t>Prueba 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +326,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -392,11 +430,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -404,7 +439,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,6 +463,2226 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparación Tasa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Transferencia en Pruebas</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa de Transferencia (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$14:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Prueba 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Prueba 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Prueba 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>262.12434067444946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.71097058722933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.43990922771553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150.62840798551071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.84036120947923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>188.54519169545907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5605-B142-8AE4-CFA05A388C14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="388063360"/>
+        <c:axId val="388065088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388063360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388065088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388065088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasa</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de Transferencia (MB/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388063360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por cliente</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AH$12:$AQ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$13:$AQ$13</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.1203703703703697E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0624999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0046296296296296E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1967592592592595E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9351851851851859E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8425925925925932E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.993055555555556E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1243055555555556E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.027777777777777E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.027777777777777E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9F6-7349-B0A7-AE2E62512DB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prueba 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AH$12:$AQ$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$14:$AQ$14</c:f>
+              <c:numCache>
+                <c:formatCode>mm:ss.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.6435185185185176E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4375E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0497685185185185E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0335648148148149E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0775462962962959E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0712962962962964E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0046296296296295E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0393518518518516E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0185185185185185E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6875000000000007E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9F6-7349-B0A7-AE2E62512DB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1853253776"/>
+        <c:axId val="48446655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1853253776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numero de cliente</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48446655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48446655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo en segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="mm:ss.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853253776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492126</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>302491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBF3398-CA21-6F4D-2D34-42DFD5011077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>751898</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>518967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>404090</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115453</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87992830-64B9-8FB3-DCA1-AD47E8A8ADF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,10 +2982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FB4C91-B7A4-4440-B30A-03D089B0CABF}">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" topLeftCell="U5" zoomScale="88" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,56 +3004,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="9"/>
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="N1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="N1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="U1" s="7" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AG1" s="7" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AG1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
     </row>
     <row r="2" spans="1:43" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1178,85 +3439,85 @@
       <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AD5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AG5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AH5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI5" s="9" t="s">
+      <c r="AI5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AL5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AM5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AN5" s="9" t="s">
+      <c r="AN5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AO5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AP5" s="9" t="s">
+      <c r="AP5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AQ5" s="9" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1699,85 +3960,85 @@
       <c r="N9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="9" t="s">
+      <c r="X9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Z9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="AB9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AC9" s="9" t="s">
+      <c r="AC9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AD9" s="9" t="s">
+      <c r="AD9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AG9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AH9" s="9" t="s">
+      <c r="AH9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AI9" s="9" t="s">
+      <c r="AI9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AJ9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AK9" s="9" t="s">
+      <c r="AK9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AL9" s="9" t="s">
+      <c r="AL9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AM9" s="9" t="s">
+      <c r="AM9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AN9" s="9" t="s">
+      <c r="AN9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AO9" s="9" t="s">
+      <c r="AO9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AP9" s="9" t="s">
+      <c r="AP9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AQ9" s="9" t="s">
+      <c r="AQ9" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1917,6 +4178,163 @@
       <c r="AQ10" s="2">
         <f t="shared" si="4"/>
         <v>52464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>7</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>8</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="51" x14ac:dyDescent="0.2">
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>4.1203703703703697E-6</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>4.0624999999999996E-6</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>4.0046296296296296E-6</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>5.1967592592592595E-6</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>3.9351851851851859E-6</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>3.8425925925925932E-6</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>3.993055555555556E-6</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>1.1243055555555556E-4</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>4.027777777777777E-6</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>4.027777777777777E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="17" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <f>AVERAGE(B6)</f>
+        <v>262.12434067444946</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>6.6435185185185176E-5</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>2.4375E-5</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>1.0497685185185185E-5</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>1.0335648148148149E-5</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>2.0775462962962959E-5</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>1.0712962962962964E-4</v>
+      </c>
+      <c r="AN14" s="10">
+        <v>1.0046296296296295E-5</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>6.0393518518518516E-5</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>1.0185185185185185E-5</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>5.6875000000000007E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15">
+        <f>E6</f>
+        <v>263.71097058722933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <f>AVERAGE(H6:L6)</f>
+        <v>231.43990922771553</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(O6:S6)</f>
+        <v>150.62840798551071</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(V6:AE6)</f>
+        <v>280.84036120947923</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE(AH6:AQ6)</f>
+        <v>188.54519169545907</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +4346,9 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>